--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" tabRatio="572"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" tabRatio="572" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template B - PR" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Nome do projeto:</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Resultados das iterações</t>
   </si>
   <si>
-    <t>Último desempenho da métrica (alterado diariamente)</t>
-  </si>
-  <si>
     <t>Resultado diário da métrica</t>
   </si>
   <si>
@@ -402,6 +399,12 @@
   </si>
   <si>
     <t>Interv. med. ou Indicador (valor alvo)</t>
+  </si>
+  <si>
+    <t>ID da métrica</t>
+  </si>
+  <si>
+    <t>Desempenho diário da métrica</t>
   </si>
 </sst>
 </file>
@@ -1237,6 +1240,68 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1262,65 +1327,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1347,22 +1366,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1972,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
@@ -1994,60 +1997,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="36" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="55"/>
+      <c r="J3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="47" t="s">
@@ -2059,26 +2062,26 @@
         <v>21</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
@@ -2090,146 +2093,140 @@
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="40"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="19"/>
       <c r="H6" s="7"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="55"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="53"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="53"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="53"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="53"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="53"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="53"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="54"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="53"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="53"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="53"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="53"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="53"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="53"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="54"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="38"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="36">
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K14:K21"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -2246,13 +2243,19 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="K6:K13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.43307086614173229" bottom="0.43307086614173229" header="0" footer="7.874015748031496E-2"/>
@@ -2268,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2290,11 +2293,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
@@ -2302,50 +2305,50 @@
       <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="32"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="47" t="s">
@@ -2353,30 +2356,30 @@
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
-      <c r="E4" s="60" t="s">
-        <v>34</v>
+      <c r="E4" s="64" t="s">
+        <v>54</v>
       </c>
       <c r="F4" s="47" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
@@ -2386,158 +2389,151 @@
       <c r="D5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="40"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="19"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="55"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="53"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="53"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="53"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="53"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="54"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="52"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="53"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="53"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="53"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="53"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="53"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="53"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="54"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="38"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="35">
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K14:K21"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="B6:B9"/>
@@ -2554,12 +2550,19 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.43307086614173229" bottom="0.43307086614173229" header="0" footer="7.874015748031496E-2"/>
@@ -2590,17 +2593,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -2644,17 +2647,17 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -2667,11 +2670,11 @@
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2810,44 +2813,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="32"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="68" t="s">
         <v>33</v>
       </c>
